--- a/adaptation/docs/ENG-DU_conversion.xlsx
+++ b/adaptation/docs/ENG-DU_conversion.xlsx
@@ -15,11 +15,12 @@
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="172">
   <si>
     <t>English phone</t>
   </si>
@@ -39,69 +40,422 @@
     <t>A</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>AH</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>AO</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AW </t>
+  </si>
+  <si>
+    <t>Au</t>
+  </si>
+  <si>
+    <t>A+</t>
+  </si>
+  <si>
+    <t>AY</t>
+  </si>
+  <si>
+    <t>VI</t>
+  </si>
+  <si>
+    <t>A + j</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>CH</t>
+  </si>
+  <si>
+    <t>tS</t>
+  </si>
+  <si>
+    <t>t + j</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>DH</t>
+  </si>
+  <si>
+    <t>EH</t>
+  </si>
+  <si>
+    <t>ER</t>
+  </si>
+  <si>
+    <t>EY</t>
+  </si>
+  <si>
+    <t>eI</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>HH</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>ham</t>
+  </si>
+  <si>
+    <t>IH</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>IY</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>JH</t>
+  </si>
+  <si>
+    <t>dZ</t>
+  </si>
+  <si>
+    <t>d + Z</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>NG</t>
+  </si>
+  <si>
+    <t>OW</t>
+  </si>
+  <si>
+    <t>@U</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>OY</t>
+  </si>
+  <si>
+    <t>OI</t>
+  </si>
+  <si>
+    <t>O + j</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>SH</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>TH</t>
+  </si>
+  <si>
+    <t>UH</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>UW</t>
+  </si>
+  <si>
+    <t>u:</t>
+  </si>
+  <si>
+    <t>y + w</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>ZH</t>
+  </si>
+  <si>
+    <t>A:</t>
+  </si>
+  <si>
+    <t>A~</t>
+  </si>
+  <si>
+    <t>E+</t>
+  </si>
+  <si>
+    <t>E:</t>
+  </si>
+  <si>
+    <t>E~</t>
+  </si>
+  <si>
+    <t>G:</t>
+  </si>
+  <si>
+    <t>I:</t>
+  </si>
+  <si>
+    <t>I~</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>N:</t>
+  </si>
+  <si>
+    <t>O:</t>
+  </si>
+  <si>
+    <t>O~</t>
+  </si>
+  <si>
+    <t>Y+</t>
+  </si>
+  <si>
+    <t>Y:</t>
+  </si>
+  <si>
+    <t>Y~</t>
+  </si>
+  <si>
+    <t>a:</t>
+  </si>
+  <si>
+    <t>b:</t>
+  </si>
+  <si>
+    <t>d:</t>
+  </si>
+  <si>
+    <t>a~</t>
+  </si>
+  <si>
+    <t>e:</t>
+  </si>
+  <si>
+    <t>f:</t>
+  </si>
+  <si>
+    <t>g:</t>
+  </si>
+  <si>
+    <t>h:</t>
+  </si>
+  <si>
+    <t>i:</t>
+  </si>
+  <si>
+    <t>i~</t>
+  </si>
+  <si>
+    <t>j:</t>
+  </si>
+  <si>
+    <t>k:</t>
+  </si>
+  <si>
+    <t>l:</t>
+  </si>
+  <si>
+    <t>m:</t>
+  </si>
+  <si>
+    <t>n:</t>
+  </si>
+  <si>
+    <t>o:</t>
+  </si>
+  <si>
+    <t>p:</t>
+  </si>
+  <si>
+    <t>r:</t>
+  </si>
+  <si>
+    <t>s:</t>
+  </si>
+  <si>
+    <t>t:</t>
+  </si>
+  <si>
+    <t>t~</t>
+  </si>
+  <si>
+    <t>v:</t>
+  </si>
+  <si>
+    <t>w:</t>
+  </si>
+  <si>
+    <t>x:</t>
+  </si>
+  <si>
+    <t>z:</t>
+  </si>
+  <si>
+    <t>@</t>
+  </si>
+  <si>
+    <t>@:</t>
+  </si>
+  <si>
+    <t>Conversion</t>
+  </si>
+  <si>
+    <t>halfway between E and a:</t>
+  </si>
+  <si>
+    <t>origin = E + half the distance between a: and A</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>a</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>fter</t>
     </r>
   </si>
   <si>
-    <t>AE</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
+    <r>
       <t>m</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>a</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>p</t>
     </r>
   </si>
   <si>
-    <t>AH</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
     <r>
       <t>c</t>
     </r>
@@ -110,28 +464,20 @@
         <b/>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>u</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>t</t>
     </r>
   </si>
   <si>
-    <t>AO</t>
-  </si>
-  <si>
-    <t>Q</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
     <r>
       <t>l</t>
     </r>
@@ -140,28 +486,20 @@
         <b/>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>o</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>g</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">AW </t>
-  </si>
-  <si>
-    <t>Au</t>
-  </si>
-  <si>
-    <t>A+</t>
-  </si>
-  <si>
     <r>
       <t>h</t>
     </r>
@@ -170,28 +508,20 @@
         <b/>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>ou</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>se</t>
     </r>
   </si>
   <si>
-    <t>AY</t>
-  </si>
-  <si>
-    <t>VI</t>
-  </si>
-  <si>
-    <t>A + j</t>
-  </si>
-  <si>
     <r>
       <t>l</t>
     </r>
@@ -200,118 +530,96 @@
         <b/>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>i</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>fe</t>
     </r>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>b</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>an</t>
     </r>
   </si>
   <si>
-    <t>CH</t>
-  </si>
-  <si>
-    <t>tS</t>
-  </si>
-  <si>
-    <t>t + j</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>ch</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>oke</t>
     </r>
   </si>
   <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>d</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>ay</t>
     </r>
   </si>
   <si>
-    <t>DH</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>th</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>ey</t>
     </r>
   </si>
   <si>
-    <t>EH</t>
-  </si>
-  <si>
     <r>
       <t>d</t>
     </r>
@@ -320,22 +628,20 @@
         <b/>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>e</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>sk</t>
     </r>
   </si>
   <si>
-    <t>ER</t>
-  </si>
-  <si>
     <r>
       <t>bird/ch</t>
     </r>
@@ -344,28 +650,20 @@
         <b/>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>u</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>rch</t>
     </r>
   </si>
   <si>
-    <t>EY</t>
-  </si>
-  <si>
-    <t>eI</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
     <r>
       <t>t</t>
     </r>
@@ -374,82 +672,58 @@
         <b/>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>a</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>ke</t>
     </r>
   </si>
   <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>f</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>lesh</t>
     </r>
   </si>
   <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>g</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>un</t>
     </r>
   </si>
   <si>
-    <t>HH</t>
-  </si>
-  <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>ham</t>
-  </si>
-  <si>
-    <t>IH</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
     <r>
       <t>p</t>
     </r>
@@ -458,25 +732,20 @@
         <b/>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>i</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>n</t>
     </r>
   </si>
   <si>
-    <t>IY</t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
-  <si>
     <r>
       <t>t</t>
     </r>
@@ -485,28 +754,20 @@
         <b/>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>ea</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>m</t>
     </r>
   </si>
   <si>
-    <t>JH</t>
-  </si>
-  <si>
-    <t>dZ</t>
-  </si>
-  <si>
-    <t>d + Z</t>
-  </si>
-  <si>
     <r>
       <t>ca</t>
     </r>
@@ -515,118 +776,96 @@
         <b/>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>g</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>e</t>
     </r>
   </si>
   <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>k</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>c</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>age</t>
     </r>
   </si>
   <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>l</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>ake</t>
     </r>
   </si>
   <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>m</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>other</t>
     </r>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>n</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>ow</t>
     </r>
   </si>
   <si>
-    <t>NG</t>
-  </si>
-  <si>
     <r>
       <t>ri</t>
     </r>
@@ -635,20 +874,12 @@
         <b/>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>ng</t>
     </r>
   </si>
   <si>
-    <t>OW</t>
-  </si>
-  <si>
-    <t>@U</t>
-  </si>
-  <si>
-    <t>o</t>
-  </si>
-  <si>
     <r>
       <t>h</t>
     </r>
@@ -657,28 +888,20 @@
         <b/>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>o</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>me</t>
     </r>
   </si>
   <si>
-    <t>OY</t>
-  </si>
-  <si>
-    <t>OI</t>
-  </si>
-  <si>
-    <t>O + j</t>
-  </si>
-  <si>
     <r>
       <t>j</t>
     </r>
@@ -687,159 +910,126 @@
         <b/>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>oy</t>
     </r>
   </si>
   <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>p</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>et</t>
     </r>
   </si>
   <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>r</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>ing</t>
     </r>
   </si>
   <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>s</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>tart</t>
     </r>
   </si>
   <si>
-    <t>SH</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>sh</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>allow</t>
     </r>
   </si>
   <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>t</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>t</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>rain</t>
     </r>
   </si>
   <si>
-    <t>TH</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>th</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>ree</t>
     </r>
   </si>
   <si>
-    <t>UH</t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
     <r>
       <t>b</t>
     </r>
@@ -848,28 +1038,20 @@
         <b/>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>oo</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>k</t>
     </r>
   </si>
   <si>
-    <t>UW</t>
-  </si>
-  <si>
-    <t>u:</t>
-  </si>
-  <si>
-    <t>y + w</t>
-  </si>
-  <si>
     <r>
       <t>fl</t>
     </r>
@@ -878,83 +1060,69 @@
         <b/>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>ew</t>
     </r>
   </si>
   <si>
-    <t>v</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>v</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>an</t>
     </r>
   </si>
   <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>w</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>ater</t>
     </r>
   </si>
   <si>
-    <t>j</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>y</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>ogurt</t>
     </r>
   </si>
   <si>
-    <t>Z</t>
-  </si>
-  <si>
-    <t>z</t>
-  </si>
-  <si>
     <r>
       <t>bla</t>
     </r>
@@ -963,22 +1131,20 @@
         <b/>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>z</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>e</t>
     </r>
   </si>
   <si>
-    <t>ZH</t>
-  </si>
-  <si>
     <r>
       <t>lei</t>
     </r>
@@ -987,150 +1153,34 @@
         <b/>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>s</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>ure</t>
     </r>
   </si>
   <si>
-    <t>A:</t>
-  </si>
-  <si>
-    <t>A~</t>
-  </si>
-  <si>
-    <t>E+</t>
-  </si>
-  <si>
-    <t>E:</t>
-  </si>
-  <si>
-    <t>E~</t>
-  </si>
-  <si>
-    <t>G:</t>
-  </si>
-  <si>
-    <t>I:</t>
-  </si>
-  <si>
-    <t>I~</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>N:</t>
-  </si>
-  <si>
-    <t>O:</t>
-  </si>
-  <si>
-    <t>O~</t>
-  </si>
-  <si>
-    <t>Y+</t>
-  </si>
-  <si>
-    <t>Y:</t>
-  </si>
-  <si>
-    <t>Y~</t>
-  </si>
-  <si>
-    <t>a:</t>
-  </si>
-  <si>
-    <t>b:</t>
-  </si>
-  <si>
-    <t>d:</t>
-  </si>
-  <si>
-    <t>a~</t>
-  </si>
-  <si>
-    <t>e:</t>
-  </si>
-  <si>
-    <t>f:</t>
-  </si>
-  <si>
-    <t>g:</t>
-  </si>
-  <si>
-    <t>h:</t>
-  </si>
-  <si>
-    <t>i:</t>
-  </si>
-  <si>
-    <t>i~</t>
-  </si>
-  <si>
-    <t>j:</t>
-  </si>
-  <si>
-    <t>k:</t>
-  </si>
-  <si>
-    <t>l:</t>
-  </si>
-  <si>
-    <t>m:</t>
-  </si>
-  <si>
-    <t>n:</t>
-  </si>
-  <si>
-    <t>o:</t>
-  </si>
-  <si>
-    <t>p:</t>
-  </si>
-  <si>
-    <t>r:</t>
-  </si>
-  <si>
-    <t>s:</t>
-  </si>
-  <si>
-    <t>t:</t>
-  </si>
-  <si>
-    <t>t~</t>
-  </si>
-  <si>
-    <t>v:</t>
-  </si>
-  <si>
-    <t>w:</t>
-  </si>
-  <si>
-    <t>x:</t>
-  </si>
-  <si>
-    <t>z:</t>
-  </si>
-  <si>
-    <t>@</t>
-  </si>
-  <si>
-    <t>@:</t>
+    <t>halfway between v and z</t>
+  </si>
+  <si>
+    <t>halfway between 2 and o:</t>
+  </si>
+  <si>
+    <t>halway between f and s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1156,15 +1206,21 @@
       <name val="Arial"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1187,7 +1243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1196,6 +1252,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1512,9 +1571,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="14.453125" style="8"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -1526,8 +1590,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1540,22 +1607,25 @@
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
+      <c r="D2" s="8" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>10</v>
+      <c r="D3" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -1581,18 +1651,20 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="4"/>
+      <c r="D4" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>130</v>
+      </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -1617,44 +1689,44 @@
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>136</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -1681,30 +1753,30 @@
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>33</v>
+        <v>25</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>138</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -1731,30 +1803,33 @@
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>169</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -1780,18 +1855,20 @@
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -1816,18 +1893,20 @@
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B13" s="3">
         <v>3</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>170</v>
+      </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -1852,100 +1931,100 @@
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>46</v>
+        <v>33</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>49</v>
+        <v>35</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>52</v>
+        <v>37</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>55</v>
+        <v>39</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>61</v>
+        <v>44</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>65</v>
+        <v>47</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>148</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
@@ -1972,100 +2051,100 @@
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>68</v>
+        <v>49</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>71</v>
+        <v>51</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>74</v>
+        <v>53</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>77</v>
+        <v>55</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>79</v>
+        <v>54</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>83</v>
+        <v>59</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>87</v>
+        <v>62</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>155</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
@@ -2092,86 +2171,89 @@
     </row>
     <row r="28" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>90</v>
+        <v>64</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>93</v>
+        <v>66</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>96</v>
+        <v>68</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="31" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>98</v>
+        <v>67</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>101</v>
+        <v>71</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="33" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>103</v>
+        <v>71</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>171</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
@@ -2197,30 +2279,30 @@
     </row>
     <row r="34" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>107</v>
+        <v>75</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="35" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>111</v>
+        <v>78</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>163</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
@@ -2247,298 +2329,298 @@
     </row>
     <row r="36" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>113</v>
+        <v>79</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="37" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>116</v>
+        <v>81</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="38" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>118</v>
+        <v>82</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="39" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>121</v>
+        <v>84</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="40" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>123</v>
+        <v>83</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="41" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B41" s="2"/>
       <c r="C41" s="2" t="s">
-        <v>124</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C42" s="2" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C43" s="2" t="s">
-        <v>126</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C44" s="2" t="s">
-        <v>127</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C45" s="2" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C46" s="2" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C47" s="2" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C48" s="2" t="s">
-        <v>130</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C49" s="2" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C50" s="2" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C51" s="2" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C52" s="2" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C53" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C54" s="2" t="s">
-        <v>135</v>
+        <v>97</v>
       </c>
     </row>
     <row r="55" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C55" s="2" t="s">
-        <v>136</v>
+        <v>98</v>
       </c>
     </row>
     <row r="56" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C56" s="2" t="s">
-        <v>137</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C57" s="2" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C58" s="2" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
     </row>
     <row r="59" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C59" s="2" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
     </row>
     <row r="60" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C60" s="2" t="s">
-        <v>141</v>
+        <v>103</v>
       </c>
     </row>
     <row r="61" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C61" s="2" t="s">
-        <v>142</v>
+        <v>104</v>
       </c>
     </row>
     <row r="62" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C62" s="2" t="s">
-        <v>143</v>
+        <v>105</v>
       </c>
     </row>
     <row r="63" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C63" s="2" t="s">
-        <v>144</v>
+        <v>106</v>
       </c>
     </row>
     <row r="64" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C64" s="2" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
     </row>
     <row r="65" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C65" s="2" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
     </row>
     <row r="66" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C66" s="2" t="s">
-        <v>147</v>
+        <v>109</v>
       </c>
     </row>
     <row r="67" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C67" s="2" t="s">
-        <v>148</v>
+        <v>110</v>
       </c>
     </row>
     <row r="68" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C68" s="2" t="s">
-        <v>149</v>
+        <v>111</v>
       </c>
     </row>
     <row r="69" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C69" s="2" t="s">
-        <v>150</v>
+        <v>112</v>
       </c>
     </row>
     <row r="70" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C70" s="2" t="s">
-        <v>151</v>
+        <v>113</v>
       </c>
     </row>
     <row r="71" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C71" s="2" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
     </row>
     <row r="72" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C72" s="2" t="s">
-        <v>153</v>
+        <v>115</v>
       </c>
     </row>
     <row r="73" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C73" s="2" t="s">
-        <v>154</v>
+        <v>116</v>
       </c>
     </row>
     <row r="74" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C74" s="2" t="s">
-        <v>155</v>
+        <v>117</v>
       </c>
     </row>
     <row r="75" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C75" s="2" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
     </row>
     <row r="76" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C76" s="2" t="s">
-        <v>157</v>
+        <v>119</v>
       </c>
     </row>
     <row r="77" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C77" s="2" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
     </row>
     <row r="78" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C78" s="2" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
     </row>
     <row r="79" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C79" s="2" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
     </row>
     <row r="80" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C80" s="2" t="s">
-        <v>160</v>
+        <v>122</v>
       </c>
     </row>
     <row r="81" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C81" s="2" t="s">
-        <v>161</v>
+        <v>123</v>
       </c>
     </row>
     <row r="82" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C82" s="2" t="s">
-        <v>162</v>
+        <v>124</v>
       </c>
     </row>
     <row r="83" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C83" s="2" t="s">
-        <v>163</v>
+        <v>125</v>
       </c>
     </row>
     <row r="84" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C84" s="2" t="s">
-        <v>164</v>
+        <v>126</v>
       </c>
     </row>
     <row r="85" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C85" s="2" t="s">
-        <v>165</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
